--- a/web-scraping/files/result.xlsx
+++ b/web-scraping/files/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,220 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Titanic</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>The unsinkable R.M.S. Titanic departs Southampton on April 10, 1912, but never reaches its final destination. It sinks on April 15 after hitting an iceberg.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Adventure, History, Drama</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jumanji</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>rotten</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A magical board game unleashes a world of adventure on siblings Peter (Bradley Pierce) and Judy Shepherd (Kirsten Dunst). While exploring an old mansion, the youngsters find a curious, jungle-themed game called Jumanji in the attic. When they start playing, they free Alan Parrish (Robin Williams), who's been stuck in the game's inner world for decades. If they win Jumanji, the kids can free Alan for good -- but that means braving giant bugs, ill-mannered monkeys and even stampeding rhinos!</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>The technology both overwhelms the human cast and stalls the narrative drive. Even Williams's manic energy finally flags.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>The humans are wooden, the computer-animals have that floating, jerky gait of animated fauna.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>The filmmakers... re-create safari beasts with wizardly finesse but can’t think of anything to do with them but zap you.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>What’s missing is a soul for this mechanical marvel.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Hollow, but very spectacular.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Night Train to Kathmandu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>An American girl (Milla Jovovich) meets a prince (Eddie Castrodad) from a secret kingdom sought by a professor (Pernell Roberts) in Nepal.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>No Exact match Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Beyond the Dream</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>The true story of two high school teachers who started a program to take students from El Paso on a journey to visit Ivy League schools in the east coast, to inspire them and help them realize what they can achieve.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Documentary</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>There is a gem of inspiration at the film’s core, but the slow pacing and lack of story undermine it.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Beyond the Dream is a lovely depiction of something very real and mostly unheard of. Sure, inspirational stories like these are common but they don’t necessarily have happy endings. This one does and it will lift you up.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>A great reminder that there are opportunities out there for future students who may not know where to start their college path.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/web-scraping/files/result.xlsx
+++ b/web-scraping/files/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>R (Sci-Fi Violence|Brief Language)</t>
+          <t xml:space="preserve"> Sci-fi/Action</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -590,7 +590,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Adventure, History, Drama</t>
+          <t xml:space="preserve"> Adventure/History</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -640,7 +640,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t xml:space="preserve"> Kids &amp; family/Fantasy</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -698,7 +698,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Adventure</t>
+          <t xml:space="preserve"> Adventure</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -718,67 +718,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sta</t>
+          <t>Beyond the Dream</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>The true story of two high school teachers who started a program to take students from El Paso on a journey to visit Ivy League schools in the east coast, to inspire them and help them realize what they can achieve.</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Documentary</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>There is a gem of inspiration at the film’s core, but the slow pacing and lack of story undermine it.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Beyond the Dream is a lovely depiction of something very real and mostly unheard of. Sure, inspirational stories like these are common but they don’t necessarily have happy endings. This one does and it will lift you up.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>A great reminder that there are opportunities out there for future students who may not know where to start their college path.</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
-        <is>
-          <t>No Exact match Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Beyond the Dream</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>The true story of two high school teachers who started a program to take students from El Paso on a journey to visit Ivy League schools in the east coast, to inspire them and help them realize what they can achieve.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Documentary</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>There is a gem of inspiration at the film’s core, but the slow pacing and lack of story undermine it.</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Beyond the Dream is a lovely depiction of something very real and mostly unheard of. Sure, inspirational stories like these are common but they don’t necessarily have happy endings. This one does and it will lift you up.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>A great reminder that there are opportunities out there for future students who may not know where to start their college path.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
